--- a/DataTest/login.xlsx
+++ b/DataTest/login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A523A64D-41D2-4CF8-8381-A2A12709407F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD0B3D-C2B1-46A7-8118-FA139E4047F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{84BEE05A-33E8-474A-B97C-B3B03F9AC398}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84BEE05A-33E8-474A-B97C-B3B03F9AC398}"/>
   </bookViews>
   <sheets>
     <sheet name="IncorrectUsername" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>nng729</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -406,42 +409,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA9ABD7-F820-4024-906C-2ED990E72B97}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{88BDC701-460F-4B20-80A2-BFA3C2DFEEDB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E953D1D-9F65-442A-9C9C-D670A676F269}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{88BDC701-460F-4B20-80A2-BFA3C2DFEEDB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9E953D1D-9F65-442A-9C9C-D670A676F269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -449,33 +461,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F438CC-0E03-4DF5-8150-77467D2BCC5D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
